--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2199538.923155818</v>
+        <v>2192365.634445535</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702198</v>
+        <v>2346514.735702199</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9959793.46332754</v>
+        <v>9959793.463327536</v>
       </c>
     </row>
     <row r="11">
@@ -658,73 +658,73 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>102.2133755837553</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>31.31448940967739</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>205.0481221176458</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="G2" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>141.0252816852793</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>101.0053731993272</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>25.26169489907923</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>101.600473259424</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280911</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385218</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409305</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>213.9335039132224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281887</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129689</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>206.8577612758364</v>
+        <v>242.9546773564035</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>136.1520687203419</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>56.87637597787389</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>314.2852350301317</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>124.339681037829</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>232.5467951020189</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>72.65793777463476</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>51.11544999027132</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>22.31174839268279</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>104.3704980693184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274108</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238237</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>174.4534201155232</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.91388839244355</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>31.53167077399063</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>179.9063415975612</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>15.25380651057236</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>199.8346832822484</v>
       </c>
     </row>
     <row r="29">
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>81.50838723821396</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>49.21182350370111</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>73.01852064932227</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>229.4915167703092</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>54.82971159804897</v>
+        <v>198.7503859381839</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>134.0409264559677</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>122.3137095599312</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>683.2303018926191</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="C2" t="n">
-        <v>683.2303018926191</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="D2" t="n">
-        <v>579.9844679696339</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="E2" t="n">
-        <v>579.9844679696339</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="F2" t="n">
-        <v>301.0384945329112</v>
+        <v>260.8426337500503</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
@@ -4339,7 +4339,7 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
         <v>817.0829279823542</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X2" t="n">
-        <v>962.1762753293418</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="Y2" t="n">
-        <v>962.1762753293418</v>
+        <v>825.6800813726992</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.7472568676423</v>
+        <v>703.1335554899765</v>
       </c>
       <c r="C3" t="n">
-        <v>160.7472568676423</v>
+        <v>703.1335554899765</v>
       </c>
       <c r="D3" t="n">
-        <v>160.7472568676423</v>
+        <v>554.1991458287252</v>
       </c>
       <c r="E3" t="n">
-        <v>160.7472568676423</v>
+        <v>394.9616908232698</v>
       </c>
       <c r="F3" t="n">
-        <v>160.7472568676423</v>
+        <v>248.4271328501548</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>28.39914141318535</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>274.5546080058863</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>547.9495565712182</v>
+        <v>679.0427979944841</v>
       </c>
       <c r="N3" t="n">
-        <v>821.3445051365501</v>
+        <v>679.0427979944841</v>
       </c>
       <c r="O3" t="n">
         <v>828.8278839945615</v>
@@ -4436,25 +4436,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>830.5964125663306</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W3" t="n">
-        <v>576.3590558381291</v>
+        <v>1079.109191274998</v>
       </c>
       <c r="X3" t="n">
-        <v>368.5075556325962</v>
+        <v>1079.109191274998</v>
       </c>
       <c r="Y3" t="n">
-        <v>160.7472568676423</v>
+        <v>871.3488925100446</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.8864124348984</v>
+        <v>881.5435604379525</v>
       </c>
       <c r="C5" t="n">
-        <v>245.8864124348984</v>
+        <v>512.5810434975408</v>
       </c>
       <c r="D5" t="n">
-        <v>245.8864124348984</v>
+        <v>154.3153448907903</v>
       </c>
       <c r="E5" t="n">
-        <v>245.8864124348984</v>
+        <v>51.68860422470543</v>
       </c>
       <c r="F5" t="n">
-        <v>238.940911685695</v>
+        <v>44.74310347550196</v>
       </c>
       <c r="G5" t="n">
-        <v>223.9609786779067</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779067</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="I5" t="n">
-        <v>29.7631704677137</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380354</v>
+        <v>57.64391735380383</v>
       </c>
       <c r="K5" t="n">
-        <v>220.174733845687</v>
+        <v>220.1747338456873</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039963</v>
+        <v>474.0852112039967</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494142</v>
+        <v>773.2160860494147</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635719</v>
+        <v>1062.55521363572</v>
       </c>
       <c r="O5" t="n">
         <v>1290.582309293126</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935877</v>
+        <v>1447.523776935878</v>
       </c>
       <c r="Q5" t="n">
         <v>1488.158523385685</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488188</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="S5" t="n">
-        <v>1166.509506436743</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="T5" t="n">
-        <v>1166.509506436743</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="U5" t="n">
-        <v>1166.509506436743</v>
+        <v>1234.312215708067</v>
       </c>
       <c r="V5" t="n">
-        <v>835.4466190931727</v>
+        <v>1234.312215708067</v>
       </c>
       <c r="W5" t="n">
-        <v>835.4466190931727</v>
+        <v>881.5435604379525</v>
       </c>
       <c r="X5" t="n">
-        <v>461.9808608320928</v>
+        <v>881.5435604379525</v>
       </c>
       <c r="Y5" t="n">
-        <v>245.8864124348984</v>
+        <v>881.5435604379525</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>381.4085251785976</v>
+        <v>658.9226223886625</v>
       </c>
       <c r="C6" t="n">
-        <v>381.4085251785976</v>
+        <v>484.4695931075355</v>
       </c>
       <c r="D6" t="n">
-        <v>381.4085251785976</v>
+        <v>335.5351834462842</v>
       </c>
       <c r="E6" t="n">
-        <v>222.1710701731421</v>
+        <v>176.2977284408287</v>
       </c>
       <c r="F6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="I6" t="n">
-        <v>29.7631704677137</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="J6" t="n">
-        <v>52.6753726278283</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="K6" t="n">
-        <v>218.4568186361409</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="L6" t="n">
-        <v>502.7748277822768</v>
+        <v>212.7583667934827</v>
       </c>
       <c r="M6" t="n">
-        <v>871.0940623202339</v>
+        <v>581.0776013314398</v>
       </c>
       <c r="N6" t="n">
-        <v>1239.413296858191</v>
+        <v>949.3968358693969</v>
       </c>
       <c r="O6" t="n">
         <v>1257.711717241716</v>
@@ -4670,28 +4670,28 @@
         <v>1488.158523385685</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707607</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107476</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="T6" t="n">
-        <v>1234.174372107476</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="U6" t="n">
-        <v>1005.96755776104</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="V6" t="n">
-        <v>1005.96755776104</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="W6" t="n">
-        <v>797.0203241490843</v>
+        <v>1242.749758379217</v>
       </c>
       <c r="X6" t="n">
-        <v>589.1688239435515</v>
+        <v>1034.898258173684</v>
       </c>
       <c r="Y6" t="n">
-        <v>381.4085251785976</v>
+        <v>827.1379594087305</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.21405529384896</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="C7" t="n">
-        <v>87.21405529384896</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="D7" t="n">
-        <v>87.21405529384896</v>
+        <v>177.6762640501068</v>
       </c>
       <c r="E7" t="n">
-        <v>87.21405529384896</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="F7" t="n">
-        <v>87.21405529384896</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="G7" t="n">
-        <v>87.21405529384896</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="H7" t="n">
-        <v>29.7631704677137</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="I7" t="n">
-        <v>29.7631704677137</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="J7" t="n">
-        <v>29.7631704677137</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888135</v>
+        <v>32.09990175888136</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611226</v>
+        <v>90.61654790611227</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236681</v>
+        <v>162.7032697236682</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400012</v>
+        <v>238.5105468400013</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057935</v>
+        <v>292.5145415057936</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918663</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918663</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918663</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918663</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918663</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918663</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918663</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918663</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="X7" t="n">
-        <v>87.21405529384896</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="Y7" t="n">
-        <v>87.21405529384896</v>
+        <v>315.2036061918664</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1628.293017861605</v>
+        <v>944.4614752479201</v>
       </c>
       <c r="C8" t="n">
-        <v>1628.293017861605</v>
+        <v>944.4614752479201</v>
       </c>
       <c r="D8" t="n">
-        <v>1270.027319254855</v>
+        <v>586.1957766411697</v>
       </c>
       <c r="E8" t="n">
-        <v>1270.027319254855</v>
+        <v>200.4075240429254</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>193.462023293722</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>179.5386192323129</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036444</v>
@@ -4807,7 +4807,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224075</v>
@@ -4840,16 +4840,16 @@
         <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.892857925727</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>2014.892857925727</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036444</v>
@@ -4892,13 +4892,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152625</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036444</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>204.0596212327002</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>204.0596212327002</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147083</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211725</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M12" t="n">
-        <v>1124.115218311522</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.977845975555</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.0853130833042</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="C13" t="n">
-        <v>418.0853130833042</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D13" t="n">
-        <v>418.0853130833042</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>270.1722195009111</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>270.1722195009111</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>270.1722195009111</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>119.7542110488544</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.210845262961</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570741</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W13" t="n">
-        <v>820.5263570570741</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X13" t="n">
-        <v>820.5263570570741</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="Y13" t="n">
-        <v>599.7337779135439</v>
+        <v>765.2096374174363</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
         <v>1302.911127126629</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>993.2877828087276</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>824.3515998808207</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119733</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119733</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119733</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333292</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333292</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.712528333292</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.712528333292</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>993.2877828087276</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,19 +5500,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
@@ -5521,46 +5521,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147083</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>1024.771599890051</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581963</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581963</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581963</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581963</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383447</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324621</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>244.1070389581963</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>244.1070389581963</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.1070389581963</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5831,22 +5831,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701563</v>
+        <v>644.6755122555207</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766205</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.010087623275</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3778.509585296639</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C22" t="n">
-        <v>3609.573402368732</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>3609.573402368732</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>3609.573402368732</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4839.729433223946</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4839.729433223946</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>4839.729433223946</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>4550.600794437504</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>4295.916306231617</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W22" t="n">
-        <v>4006.499136194657</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X22" t="n">
-        <v>3778.509585296639</v>
+        <v>633.8358010296332</v>
       </c>
       <c r="Y22" t="n">
-        <v>3778.509585296639</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5986,19 +5986,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6007,13 +6007,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6031,10 +6031,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775516</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>982.3321745379599</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>727.647686332073</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L27" t="n">
-        <v>563.7235867775516</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3938.3025032891</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C28" t="n">
-        <v>3769.366320361193</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D28" t="n">
-        <v>3769.366320361193</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E28" t="n">
-        <v>3621.453226778799</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>3474.563279280889</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4347.940519017357</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>4347.940519017357</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>4347.940519017357</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X28" t="n">
-        <v>4119.950968119339</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="Y28" t="n">
-        <v>4119.950968119339</v>
+        <v>1042.378566915401</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977054</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>609.3753482118777</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C31" t="n">
-        <v>609.3753482118777</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>459.258708799542</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>376.9270045185178</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185178</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1449.207357927901</v>
       </c>
       <c r="U31" t="n">
-        <v>898.7925182488384</v>
+        <v>1160.078719141459</v>
       </c>
       <c r="V31" t="n">
-        <v>898.7925182488384</v>
+        <v>905.3942309355725</v>
       </c>
       <c r="W31" t="n">
-        <v>609.3753482118777</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="X31" t="n">
-        <v>609.3753482118777</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y31" t="n">
-        <v>609.3753482118777</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="32">
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864554</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>2013.406634128704</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3609.573402368731</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>3609.573402368731</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>3609.573402368731</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>3609.573402368731</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F34" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4787.09849155033</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4787.09849155033</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4563.313076339836</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4563.313076339836</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>4308.628588133949</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>4019.211418096988</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>3791.221867198971</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>3791.221867198971</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6964,25 +6964,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>525.6009593486384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1156.031554220426</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1156.031554220426</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>928.0420033224083</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>707.2494241788781</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7201,25 +7201,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4033.66834805521</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C40" t="n">
-        <v>4033.66834805521</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D40" t="n">
-        <v>4033.66834805521</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>3885.755254472817</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4571.72593422785</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>4317.041446021964</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>4261.657898953227</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="X40" t="n">
-        <v>4033.66834805521</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y40" t="n">
-        <v>4033.66834805521</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="41">
@@ -7396,40 +7396,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>550.2226492899335</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>857.5427825698952</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1363.521395349854</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1074.392756563412</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1074.392756563412</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>784.9755865264517</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>784.9755865264517</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7648,10 +7648,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>665.6859735286132</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>665.6859735286132</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>665.6859735286132</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,10 +8069,10 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
-        <v>132.2325872309998</v>
+        <v>275.9716853542988</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,22 +8294,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948385</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>97.00923094357597</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>268.494069727331</v>
       </c>
       <c r="M6" t="n">
-        <v>450.103353283573</v>
+        <v>450.1033532835731</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470454</v>
+        <v>437.6152809470455</v>
       </c>
       <c r="O6" t="n">
-        <v>100.9163990860283</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516219</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M12" t="n">
-        <v>159.0121003135233</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.337678916511</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>369.0893880493725</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503156</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>20.63789864135373</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>38.86002301949884</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,10 +10828,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>128.716530191666</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>88.10749707158409</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>114.2141552827764</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>112.0695782210678</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>89.05046401134922</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>194.1779846150465</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>106.3310108010162</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>151.2397619528052</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>18.74997006984634</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>64.92557540835521</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>172.3357375546881</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>36.94583175447052</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>22.6461265535188</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>231.693286738542</v>
+        <v>87.77261239840712</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>87.50663460242151</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>44.93311153869659</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>849676.7773109155</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109154</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="I2" t="n">
         <v>547440.683632792</v>
@@ -26340,22 +26340,22 @@
         <v>547440.6836327921</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="L2" t="n">
+        <v>547440.6836327915</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="O2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="P2" t="n">
         <v>547440.683632792</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.6836327923</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703828</v>
+        <v>106137.1517703829</v>
       </c>
       <c r="D3" t="n">
         <v>316711.9424252118</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>72254.69487113904</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313399</v>
+        <v>24677.246093134</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817156</v>
+        <v>76496.15793817164</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="H4" t="n">
         <v>29303.54555230232</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26447,7 +26447,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>97112.86102625763</v>
       </c>
       <c r="C6" t="n">
-        <v>139904.4138327258</v>
+        <v>139904.4138327259</v>
       </c>
       <c r="D6" t="n">
-        <v>667.4410945515556</v>
+        <v>667.4410945512063</v>
       </c>
       <c r="E6" t="n">
-        <v>-99010.2243451234</v>
+        <v>-99984.81560484464</v>
       </c>
       <c r="F6" t="n">
-        <v>426149.812131773</v>
+        <v>425175.2208720517</v>
       </c>
       <c r="G6" t="n">
-        <v>426149.812131773</v>
+        <v>425175.2208720513</v>
       </c>
       <c r="H6" t="n">
-        <v>426149.8121317731</v>
+        <v>425175.2208720513</v>
       </c>
       <c r="I6" t="n">
-        <v>426149.8121317731</v>
+        <v>425175.2208720516</v>
       </c>
       <c r="J6" t="n">
-        <v>353895.1172606341</v>
+        <v>352920.5260009125</v>
       </c>
       <c r="K6" t="n">
-        <v>401472.5660386394</v>
+        <v>400497.9747789176</v>
       </c>
       <c r="L6" t="n">
-        <v>349653.6541936015</v>
+        <v>348679.0629338792</v>
       </c>
       <c r="M6" t="n">
-        <v>291348.7968979359</v>
+        <v>290374.2056382144</v>
       </c>
       <c r="N6" t="n">
-        <v>426149.812131773</v>
+        <v>425175.2208720515</v>
       </c>
       <c r="O6" t="n">
-        <v>426149.812131773</v>
+        <v>425175.2208720515</v>
       </c>
       <c r="P6" t="n">
-        <v>426149.8121317733</v>
+        <v>425175.2208720514</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26962,13 +26962,13 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026296</v>
+        <v>82.53894384026299</v>
       </c>
       <c r="D3" t="n">
         <v>260.1834596576983</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406581</v>
+        <v>95.88311714406585</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081342</v>
+        <v>302.2476419081341</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>276.1565137023553</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406603</v>
+        <v>95.88311714406608</v>
       </c>
       <c r="L4" t="n">
-        <v>302.247641908134</v>
+        <v>302.2476419081344</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406581</v>
+        <v>95.88311714406585</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081342</v>
+        <v>302.2476419081341</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D2" t="n">
-        <v>252.4696660369276</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>383.8474591176421</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
@@ -27517,13 +27517,13 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>131.7952139500981</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>226.4332882618404</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>280.3298968128378</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385218</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>172.3044347428312</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281887</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129689</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
         <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>44.83722188508318</v>
+        <v>8.740305804516083</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>12.46340429787043</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,7 +27791,7 @@
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>103.4659788236791</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
         <v>149.0752428504967</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>92.59081071157971</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>199.5830917265282</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>53.97620323457207</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>153.0517176144024</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28529,7 +28529,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28781,7 +28781,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246762</v>
+        <v>0.4726038374246763</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025467</v>
+        <v>4.840054050025468</v>
       </c>
       <c r="I5" t="n">
         <v>18.22005944231485</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662265</v>
+        <v>40.11165994662266</v>
       </c>
       <c r="K5" t="n">
-        <v>60.1169803848092</v>
+        <v>60.11698038480922</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439466</v>
+        <v>74.58043007439467</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819574</v>
+        <v>82.98509856819575</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127861</v>
+        <v>84.32788422127862</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288698</v>
+        <v>79.62842981288699</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646527</v>
+        <v>67.96102257646528</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869404</v>
+        <v>51.03589764869405</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262784</v>
+        <v>29.68720080262785</v>
       </c>
       <c r="S5" t="n">
         <v>10.76945994531482</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326521</v>
+        <v>2.068823298326522</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397409</v>
+        <v>0.0378083069939741</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,43 +31357,43 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560427</v>
+        <v>0.2528653456560428</v>
       </c>
       <c r="H6" t="n">
         <v>2.442146890941256</v>
       </c>
       <c r="I6" t="n">
-        <v>8.70610948859621</v>
+        <v>8.706109488596212</v>
       </c>
       <c r="J6" t="n">
         <v>23.89022987182815</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078301</v>
+        <v>40.83220803078302</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483508</v>
+        <v>54.90394270483509</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486661</v>
+        <v>64.07031148486662</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270912</v>
+        <v>65.76606198270913</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106733</v>
+        <v>60.16309827106734</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496838</v>
+        <v>48.28619043496839</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128714</v>
+        <v>32.27803956128715</v>
       </c>
       <c r="R6" t="n">
         <v>15.69983260134624</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707633</v>
+        <v>4.696862889707634</v>
       </c>
       <c r="T6" t="n">
         <v>1.019224792359225</v>
@@ -31439,16 +31439,16 @@
         <v>0.2119938115005363</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886587</v>
+        <v>1.884817705886588</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761583</v>
+        <v>6.375232076761584</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308791</v>
+        <v>14.98796247308792</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342593</v>
+        <v>24.62982646342594</v>
       </c>
       <c r="L7" t="n">
         <v>31.51769812072519</v>
@@ -31457,7 +31457,7 @@
         <v>33.23099356094315</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898663</v>
+        <v>32.44083480898664</v>
       </c>
       <c r="O7" t="n">
         <v>29.96436164736672</v>
@@ -31466,19 +31466,19 @@
         <v>25.63968789275576</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846763</v>
+        <v>17.75159088846764</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651382</v>
+        <v>9.532012651651385</v>
       </c>
       <c r="S7" t="n">
         <v>3.69447396951389</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477455</v>
+        <v>0.9057917400477458</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912017</v>
+        <v>0.01156329880912018</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
@@ -34789,10 +34789,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.558968543445864</v>
+        <v>151.2980666667449</v>
       </c>
       <c r="P3" t="n">
         <v>198.8728484821096</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201013</v>
+        <v>28.16237059201014</v>
       </c>
       <c r="K5" t="n">
         <v>164.1725419109934</v>
@@ -34956,7 +34956,7 @@
         <v>158.5267349926784</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414923</v>
+        <v>41.04519843414925</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557029</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690026</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284201</v>
+        <v>184.8436326522919</v>
       </c>
       <c r="M6" t="n">
         <v>372.0396308464213</v>
@@ -35029,7 +35029,7 @@
         <v>372.0396308464213</v>
       </c>
       <c r="O6" t="n">
-        <v>18.48325291265119</v>
+        <v>311.4291731033524</v>
       </c>
       <c r="P6" t="n">
         <v>232.7745516605753</v>
@@ -35096,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.36033463754308</v>
+        <v>2.360334637543087</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104132</v>
+        <v>59.10772338104133</v>
       </c>
       <c r="M7" t="n">
         <v>72.81487052278374</v>
@@ -35108,10 +35108,10 @@
         <v>76.57300718821523</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140639</v>
+        <v>54.5494895614064</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764924</v>
+        <v>22.91824715764925</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279158</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M12" t="n">
-        <v>469.4364773639898</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>756.532252314524</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187988</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>618.3470930053969</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>384.987089538255</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560244</v>
@@ -36214,10 +36214,10 @@
         <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>227.7313135728785</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209233</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>321.223725260607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>265.0957540022528</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
